--- a/task_management_system/tasks.xlsx
+++ b/task_management_system/tasks.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$A$2:$A$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$A$2:$A$40</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>CIT - KG  hourly 9:00 AM EST report</t>
   </si>
@@ -143,15 +143,6 @@
     <t>MIB/TIB - Centerwise hourly 6:30 PM EST report</t>
   </si>
   <si>
-    <t>DAS - Daily report</t>
-  </si>
-  <si>
-    <t>DAS-Appointment Tracker</t>
-  </si>
-  <si>
-    <t>IHCM - Daily report</t>
-  </si>
-  <si>
     <t>CIT - Updater Skill-wise center-wise performance daily report</t>
   </si>
   <si>
@@ -170,9 +161,6 @@
     <t>Fri</t>
   </si>
   <si>
-    <t>IHCM PCC Duplicate Checks (Thurs)</t>
-  </si>
-  <si>
     <t>Vidhya</t>
   </si>
   <si>
@@ -185,15 +173,6 @@
     <t>Gowtham</t>
   </si>
   <si>
-    <t>DAS Weekly reports (Mon)</t>
-  </si>
-  <si>
-    <t>DAS Monthly reports (Mon)</t>
-  </si>
-  <si>
-    <t>Updater - Weekly  testing ticket ( Mon - Tue)</t>
-  </si>
-  <si>
     <t>Call Statistics and Unavailable Codes daily report (EOD)</t>
   </si>
   <si>
@@ -227,9 +206,6 @@
     <t>2.5 Hour</t>
   </si>
   <si>
-    <t>IHCM - Weekly report</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dugout - New Project </t>
   </si>
   <si>
@@ -249,9 +225,6 @@
   </si>
   <si>
     <t>``</t>
-  </si>
-  <si>
-    <t>LinkedIN (Mon - Fri)</t>
   </si>
   <si>
     <t>01-04</t>
@@ -1203,7 +1176,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1211,11 +1184,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1228,7 +1199,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1426,97 +1397,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A54">
+  <conditionalFormatting sqref="A2:A40">
     <cfRule type="containsText" dxfId="55" priority="73" operator="containsText" text="vidhya">
       <formula>NOT(ISERROR(SEARCH("vidhya",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B40 B55:B1048576 A41:A54">
     <cfRule type="containsText" dxfId="54" priority="8" operator="containsText" text="gow">
-      <formula>NOT(ISERROR(SEARCH("gow",B1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("gow",A1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="madh">
-      <formula>NOT(ISERROR(SEARCH("madh",B1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("madh",A1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="52" priority="10" operator="containsText" text="sara">
-      <formula>NOT(ISERROR(SEARCH("sara",B1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("sara",A1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="vidhy">
-      <formula>NOT(ISERROR(SEARCH("vidhy",B1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("vidhy",A1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="ash">
-      <formula>NOT(ISERROR(SEARCH("ash",B1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ash",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1541,10 +1442,10 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1554,124 +1455,124 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1866,60 +1767,60 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
         <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/task_management_system/tasks.xlsx
+++ b/task_management_system/tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
   <si>
     <t>CIT - KG  hourly 9:00 AM EST report</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>Task Name</t>
+  </si>
+  <si>
+    <t>Target Time</t>
+  </si>
+  <si>
+    <t>5 Mins</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -473,11 +479,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="66">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1176,7 +1253,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1184,239 +1261,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.875" customWidth="1"/>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="B40" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A40">
-    <cfRule type="containsText" dxfId="55" priority="73" operator="containsText" text="vidhya">
+    <cfRule type="containsText" dxfId="65" priority="73" operator="containsText" text="vidhya">
       <formula>NOT(ISERROR(SEARCH("vidhya",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B40 B55:B1048576 A41:A54">
-    <cfRule type="containsText" dxfId="54" priority="8" operator="containsText" text="gow">
+  <conditionalFormatting sqref="B55:B1048576 A41:A54 B1:B40">
+    <cfRule type="containsText" dxfId="64" priority="8" operator="containsText" text="gow">
       <formula>NOT(ISERROR(SEARCH("gow",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="madh">
+    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="madh">
       <formula>NOT(ISERROR(SEARCH("madh",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="10" operator="containsText" text="sara">
+    <cfRule type="containsText" dxfId="62" priority="10" operator="containsText" text="sara">
       <formula>NOT(ISERROR(SEARCH("sara",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="vidhy">
+    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="vidhy">
       <formula>NOT(ISERROR(SEARCH("vidhy",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="ash">
+    <cfRule type="containsText" dxfId="60" priority="12" operator="containsText" text="ash">
       <formula>NOT(ISERROR(SEARCH("ash",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1580,167 +1777,167 @@
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="containsText" dxfId="49" priority="234" operator="containsText" text="vidh">
+    <cfRule type="containsText" dxfId="59" priority="234" operator="containsText" text="vidh">
       <formula>NOT(ISERROR(SEARCH("vidh",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="235" operator="containsText" text="Krish">
+    <cfRule type="containsText" dxfId="58" priority="235" operator="containsText" text="Krish">
       <formula>NOT(ISERROR(SEARCH("Krish",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="236" operator="containsText" text="Gowt">
+    <cfRule type="containsText" dxfId="57" priority="236" operator="containsText" text="Gowt">
       <formula>NOT(ISERROR(SEARCH("Gowt",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="237" operator="containsText" text="Madh">
+    <cfRule type="containsText" dxfId="56" priority="237" operator="containsText" text="Madh">
       <formula>NOT(ISERROR(SEARCH("Madh",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="238" operator="containsText" text="Sara">
+    <cfRule type="containsText" dxfId="55" priority="238" operator="containsText" text="Sara">
       <formula>NOT(ISERROR(SEARCH("Sara",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="239" operator="containsText" text="Ash">
+    <cfRule type="containsText" dxfId="54" priority="239" operator="containsText" text="Ash">
       <formula>NOT(ISERROR(SEARCH("Ash",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="containsText" dxfId="43" priority="228" operator="containsText" text="vidh">
+    <cfRule type="containsText" dxfId="53" priority="228" operator="containsText" text="vidh">
       <formula>NOT(ISERROR(SEARCH("vidh",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="229" operator="containsText" text="Krish">
+    <cfRule type="containsText" dxfId="52" priority="229" operator="containsText" text="Krish">
       <formula>NOT(ISERROR(SEARCH("Krish",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="230" operator="containsText" text="Gowt">
+    <cfRule type="containsText" dxfId="51" priority="230" operator="containsText" text="Gowt">
       <formula>NOT(ISERROR(SEARCH("Gowt",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="231" operator="containsText" text="Madh">
+    <cfRule type="containsText" dxfId="50" priority="231" operator="containsText" text="Madh">
       <formula>NOT(ISERROR(SEARCH("Madh",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="232" operator="containsText" text="Sara">
+    <cfRule type="containsText" dxfId="49" priority="232" operator="containsText" text="Sara">
       <formula>NOT(ISERROR(SEARCH("Sara",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="233" operator="containsText" text="Ash">
+    <cfRule type="containsText" dxfId="48" priority="233" operator="containsText" text="Ash">
       <formula>NOT(ISERROR(SEARCH("Ash",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="37" priority="162" operator="containsText" text="vidh">
+    <cfRule type="containsText" dxfId="47" priority="162" operator="containsText" text="vidh">
       <formula>NOT(ISERROR(SEARCH("vidh",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="163" operator="containsText" text="Krish">
+    <cfRule type="containsText" dxfId="46" priority="163" operator="containsText" text="Krish">
       <formula>NOT(ISERROR(SEARCH("Krish",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="164" operator="containsText" text="Gowt">
+    <cfRule type="containsText" dxfId="45" priority="164" operator="containsText" text="Gowt">
       <formula>NOT(ISERROR(SEARCH("Gowt",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="165" operator="containsText" text="Madh">
+    <cfRule type="containsText" dxfId="44" priority="165" operator="containsText" text="Madh">
       <formula>NOT(ISERROR(SEARCH("Madh",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="166" operator="containsText" text="Sara">
+    <cfRule type="containsText" dxfId="43" priority="166" operator="containsText" text="Sara">
       <formula>NOT(ISERROR(SEARCH("Sara",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="167" operator="containsText" text="Ash">
+    <cfRule type="containsText" dxfId="42" priority="167" operator="containsText" text="Ash">
       <formula>NOT(ISERROR(SEARCH("Ash",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="containsText" dxfId="31" priority="75" operator="containsText" text="gow">
+    <cfRule type="containsText" dxfId="41" priority="75" operator="containsText" text="gow">
       <formula>NOT(ISERROR(SEARCH("gow",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="76" operator="containsText" text="madh">
+    <cfRule type="containsText" dxfId="40" priority="76" operator="containsText" text="madh">
       <formula>NOT(ISERROR(SEARCH("madh",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="77" operator="containsText" text="sara">
+    <cfRule type="containsText" dxfId="39" priority="77" operator="containsText" text="sara">
       <formula>NOT(ISERROR(SEARCH("sara",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="78" operator="containsText" text="vidhy">
+    <cfRule type="containsText" dxfId="38" priority="78" operator="containsText" text="vidhy">
       <formula>NOT(ISERROR(SEARCH("vidhy",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="79" operator="containsText" text="ash">
+    <cfRule type="containsText" dxfId="37" priority="79" operator="containsText" text="ash">
       <formula>NOT(ISERROR(SEARCH("ash",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="26" priority="70" operator="containsText" text="gow">
+    <cfRule type="containsText" dxfId="36" priority="70" operator="containsText" text="gow">
       <formula>NOT(ISERROR(SEARCH("gow",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="71" operator="containsText" text="madh">
+    <cfRule type="containsText" dxfId="35" priority="71" operator="containsText" text="madh">
       <formula>NOT(ISERROR(SEARCH("madh",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="72" operator="containsText" text="sara">
+    <cfRule type="containsText" dxfId="34" priority="72" operator="containsText" text="sara">
       <formula>NOT(ISERROR(SEARCH("sara",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="73" operator="containsText" text="vidhy">
+    <cfRule type="containsText" dxfId="33" priority="73" operator="containsText" text="vidhy">
       <formula>NOT(ISERROR(SEARCH("vidhy",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="74" operator="containsText" text="ash">
+    <cfRule type="containsText" dxfId="32" priority="74" operator="containsText" text="ash">
       <formula>NOT(ISERROR(SEARCH("ash",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="21" priority="65" operator="containsText" text="gow">
+    <cfRule type="containsText" dxfId="31" priority="65" operator="containsText" text="gow">
       <formula>NOT(ISERROR(SEARCH("gow",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="66" operator="containsText" text="madh">
+    <cfRule type="containsText" dxfId="30" priority="66" operator="containsText" text="madh">
       <formula>NOT(ISERROR(SEARCH("madh",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="67" operator="containsText" text="sara">
+    <cfRule type="containsText" dxfId="29" priority="67" operator="containsText" text="sara">
       <formula>NOT(ISERROR(SEARCH("sara",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="68" operator="containsText" text="vidhy">
+    <cfRule type="containsText" dxfId="28" priority="68" operator="containsText" text="vidhy">
       <formula>NOT(ISERROR(SEARCH("vidhy",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="69" operator="containsText" text="ash">
+    <cfRule type="containsText" dxfId="27" priority="69" operator="containsText" text="ash">
       <formula>NOT(ISERROR(SEARCH("ash",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="containsText" dxfId="16" priority="60" operator="containsText" text="gow">
+    <cfRule type="containsText" dxfId="26" priority="60" operator="containsText" text="gow">
       <formula>NOT(ISERROR(SEARCH("gow",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="61" operator="containsText" text="madh">
+    <cfRule type="containsText" dxfId="25" priority="61" operator="containsText" text="madh">
       <formula>NOT(ISERROR(SEARCH("madh",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="62" operator="containsText" text="sara">
+    <cfRule type="containsText" dxfId="24" priority="62" operator="containsText" text="sara">
       <formula>NOT(ISERROR(SEARCH("sara",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="63" operator="containsText" text="vidhy">
+    <cfRule type="containsText" dxfId="23" priority="63" operator="containsText" text="vidhy">
       <formula>NOT(ISERROR(SEARCH("vidhy",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="64" operator="containsText" text="ash">
+    <cfRule type="containsText" dxfId="22" priority="64" operator="containsText" text="ash">
       <formula>NOT(ISERROR(SEARCH("ash",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="11" priority="55" operator="containsText" text="gow">
+    <cfRule type="containsText" dxfId="21" priority="55" operator="containsText" text="gow">
       <formula>NOT(ISERROR(SEARCH("gow",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="56" operator="containsText" text="madh">
+    <cfRule type="containsText" dxfId="20" priority="56" operator="containsText" text="madh">
       <formula>NOT(ISERROR(SEARCH("madh",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="57" operator="containsText" text="sara">
+    <cfRule type="containsText" dxfId="19" priority="57" operator="containsText" text="sara">
       <formula>NOT(ISERROR(SEARCH("sara",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="58" operator="containsText" text="vidhy">
+    <cfRule type="containsText" dxfId="18" priority="58" operator="containsText" text="vidhy">
       <formula>NOT(ISERROR(SEARCH("vidhy",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="59" operator="containsText" text="ash">
+    <cfRule type="containsText" dxfId="17" priority="59" operator="containsText" text="ash">
       <formula>NOT(ISERROR(SEARCH("ash",A8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="vidh">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="vidh">
       <formula>NOT(ISERROR(SEARCH("vidh",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Krish">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Krish">
       <formula>NOT(ISERROR(SEARCH("Krish",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Gowt">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Gowt">
       <formula>NOT(ISERROR(SEARCH("Gowt",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Madh">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="Madh">
       <formula>NOT(ISERROR(SEARCH("Madh",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Sara">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Sara">
       <formula>NOT(ISERROR(SEARCH("Sara",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Ash">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Ash">
       <formula>NOT(ISERROR(SEARCH("Ash",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1828,7 +2025,7 @@
     <mergeCell ref="B3:B6"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A8">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="vidhya">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="vidhya">
       <formula>NOT(ISERROR(SEARCH("vidhya",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/task_management_system/tasks.xlsx
+++ b/task_management_system/tasks.xlsx
@@ -263,10 +263,10 @@
     <t>Task Name</t>
   </si>
   <si>
-    <t>Target Time</t>
-  </si>
-  <si>
-    <t>5 Mins</t>
+    <t>Estimated Time</t>
+  </si>
+  <si>
+    <t>5 mins</t>
   </si>
 </sst>
 </file>
@@ -479,82 +479,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="56">
     <dxf>
       <fill>
         <patternFill>
@@ -1253,7 +1183,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1268,10 +1198,9 @@
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.875" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1596,25 +1525,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A40">
-    <cfRule type="containsText" dxfId="65" priority="73" operator="containsText" text="vidhya">
+    <cfRule type="containsText" dxfId="55" priority="73" operator="containsText" text="vidhya">
       <formula>NOT(ISERROR(SEARCH("vidhya",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55:B1048576 A41:A54 B1:B40">
-    <cfRule type="containsText" dxfId="64" priority="8" operator="containsText" text="gow">
-      <formula>NOT(ISERROR(SEARCH("gow",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="madh">
-      <formula>NOT(ISERROR(SEARCH("madh",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="10" operator="containsText" text="sara">
-      <formula>NOT(ISERROR(SEARCH("sara",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="vidhy">
-      <formula>NOT(ISERROR(SEARCH("vidhy",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="12" operator="containsText" text="ash">
-      <formula>NOT(ISERROR(SEARCH("ash",A1)))</formula>
+  <conditionalFormatting sqref="A41:A54">
+    <cfRule type="containsText" dxfId="54" priority="8" operator="containsText" text="gow">
+      <formula>NOT(ISERROR(SEARCH("gow",A41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="madh">
+      <formula>NOT(ISERROR(SEARCH("madh",A41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="10" operator="containsText" text="sara">
+      <formula>NOT(ISERROR(SEARCH("sara",A41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="vidhy">
+      <formula>NOT(ISERROR(SEARCH("vidhy",A41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="ash">
+      <formula>NOT(ISERROR(SEARCH("ash",A41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1777,167 +1706,167 @@
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="containsText" dxfId="59" priority="234" operator="containsText" text="vidh">
+    <cfRule type="containsText" dxfId="49" priority="234" operator="containsText" text="vidh">
       <formula>NOT(ISERROR(SEARCH("vidh",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="235" operator="containsText" text="Krish">
+    <cfRule type="containsText" dxfId="48" priority="235" operator="containsText" text="Krish">
       <formula>NOT(ISERROR(SEARCH("Krish",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="236" operator="containsText" text="Gowt">
+    <cfRule type="containsText" dxfId="47" priority="236" operator="containsText" text="Gowt">
       <formula>NOT(ISERROR(SEARCH("Gowt",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="237" operator="containsText" text="Madh">
+    <cfRule type="containsText" dxfId="46" priority="237" operator="containsText" text="Madh">
       <formula>NOT(ISERROR(SEARCH("Madh",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="238" operator="containsText" text="Sara">
+    <cfRule type="containsText" dxfId="45" priority="238" operator="containsText" text="Sara">
       <formula>NOT(ISERROR(SEARCH("Sara",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="239" operator="containsText" text="Ash">
+    <cfRule type="containsText" dxfId="44" priority="239" operator="containsText" text="Ash">
       <formula>NOT(ISERROR(SEARCH("Ash",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="containsText" dxfId="53" priority="228" operator="containsText" text="vidh">
+    <cfRule type="containsText" dxfId="43" priority="228" operator="containsText" text="vidh">
       <formula>NOT(ISERROR(SEARCH("vidh",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="229" operator="containsText" text="Krish">
+    <cfRule type="containsText" dxfId="42" priority="229" operator="containsText" text="Krish">
       <formula>NOT(ISERROR(SEARCH("Krish",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="230" operator="containsText" text="Gowt">
+    <cfRule type="containsText" dxfId="41" priority="230" operator="containsText" text="Gowt">
       <formula>NOT(ISERROR(SEARCH("Gowt",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="231" operator="containsText" text="Madh">
+    <cfRule type="containsText" dxfId="40" priority="231" operator="containsText" text="Madh">
       <formula>NOT(ISERROR(SEARCH("Madh",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="232" operator="containsText" text="Sara">
+    <cfRule type="containsText" dxfId="39" priority="232" operator="containsText" text="Sara">
       <formula>NOT(ISERROR(SEARCH("Sara",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="233" operator="containsText" text="Ash">
+    <cfRule type="containsText" dxfId="38" priority="233" operator="containsText" text="Ash">
       <formula>NOT(ISERROR(SEARCH("Ash",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="47" priority="162" operator="containsText" text="vidh">
+    <cfRule type="containsText" dxfId="37" priority="162" operator="containsText" text="vidh">
       <formula>NOT(ISERROR(SEARCH("vidh",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="163" operator="containsText" text="Krish">
+    <cfRule type="containsText" dxfId="36" priority="163" operator="containsText" text="Krish">
       <formula>NOT(ISERROR(SEARCH("Krish",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="164" operator="containsText" text="Gowt">
+    <cfRule type="containsText" dxfId="35" priority="164" operator="containsText" text="Gowt">
       <formula>NOT(ISERROR(SEARCH("Gowt",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="165" operator="containsText" text="Madh">
+    <cfRule type="containsText" dxfId="34" priority="165" operator="containsText" text="Madh">
       <formula>NOT(ISERROR(SEARCH("Madh",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="166" operator="containsText" text="Sara">
+    <cfRule type="containsText" dxfId="33" priority="166" operator="containsText" text="Sara">
       <formula>NOT(ISERROR(SEARCH("Sara",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="167" operator="containsText" text="Ash">
+    <cfRule type="containsText" dxfId="32" priority="167" operator="containsText" text="Ash">
       <formula>NOT(ISERROR(SEARCH("Ash",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="containsText" dxfId="41" priority="75" operator="containsText" text="gow">
+    <cfRule type="containsText" dxfId="31" priority="75" operator="containsText" text="gow">
       <formula>NOT(ISERROR(SEARCH("gow",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="76" operator="containsText" text="madh">
+    <cfRule type="containsText" dxfId="30" priority="76" operator="containsText" text="madh">
       <formula>NOT(ISERROR(SEARCH("madh",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="77" operator="containsText" text="sara">
+    <cfRule type="containsText" dxfId="29" priority="77" operator="containsText" text="sara">
       <formula>NOT(ISERROR(SEARCH("sara",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="78" operator="containsText" text="vidhy">
+    <cfRule type="containsText" dxfId="28" priority="78" operator="containsText" text="vidhy">
       <formula>NOT(ISERROR(SEARCH("vidhy",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="79" operator="containsText" text="ash">
+    <cfRule type="containsText" dxfId="27" priority="79" operator="containsText" text="ash">
       <formula>NOT(ISERROR(SEARCH("ash",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="36" priority="70" operator="containsText" text="gow">
+    <cfRule type="containsText" dxfId="26" priority="70" operator="containsText" text="gow">
       <formula>NOT(ISERROR(SEARCH("gow",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="71" operator="containsText" text="madh">
+    <cfRule type="containsText" dxfId="25" priority="71" operator="containsText" text="madh">
       <formula>NOT(ISERROR(SEARCH("madh",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="72" operator="containsText" text="sara">
+    <cfRule type="containsText" dxfId="24" priority="72" operator="containsText" text="sara">
       <formula>NOT(ISERROR(SEARCH("sara",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="73" operator="containsText" text="vidhy">
+    <cfRule type="containsText" dxfId="23" priority="73" operator="containsText" text="vidhy">
       <formula>NOT(ISERROR(SEARCH("vidhy",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="74" operator="containsText" text="ash">
+    <cfRule type="containsText" dxfId="22" priority="74" operator="containsText" text="ash">
       <formula>NOT(ISERROR(SEARCH("ash",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="31" priority="65" operator="containsText" text="gow">
+    <cfRule type="containsText" dxfId="21" priority="65" operator="containsText" text="gow">
       <formula>NOT(ISERROR(SEARCH("gow",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="66" operator="containsText" text="madh">
+    <cfRule type="containsText" dxfId="20" priority="66" operator="containsText" text="madh">
       <formula>NOT(ISERROR(SEARCH("madh",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="67" operator="containsText" text="sara">
+    <cfRule type="containsText" dxfId="19" priority="67" operator="containsText" text="sara">
       <formula>NOT(ISERROR(SEARCH("sara",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="68" operator="containsText" text="vidhy">
+    <cfRule type="containsText" dxfId="18" priority="68" operator="containsText" text="vidhy">
       <formula>NOT(ISERROR(SEARCH("vidhy",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="69" operator="containsText" text="ash">
+    <cfRule type="containsText" dxfId="17" priority="69" operator="containsText" text="ash">
       <formula>NOT(ISERROR(SEARCH("ash",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="containsText" dxfId="26" priority="60" operator="containsText" text="gow">
+    <cfRule type="containsText" dxfId="16" priority="60" operator="containsText" text="gow">
       <formula>NOT(ISERROR(SEARCH("gow",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="61" operator="containsText" text="madh">
+    <cfRule type="containsText" dxfId="15" priority="61" operator="containsText" text="madh">
       <formula>NOT(ISERROR(SEARCH("madh",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="62" operator="containsText" text="sara">
+    <cfRule type="containsText" dxfId="14" priority="62" operator="containsText" text="sara">
       <formula>NOT(ISERROR(SEARCH("sara",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="63" operator="containsText" text="vidhy">
+    <cfRule type="containsText" dxfId="13" priority="63" operator="containsText" text="vidhy">
       <formula>NOT(ISERROR(SEARCH("vidhy",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="64" operator="containsText" text="ash">
+    <cfRule type="containsText" dxfId="12" priority="64" operator="containsText" text="ash">
       <formula>NOT(ISERROR(SEARCH("ash",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="21" priority="55" operator="containsText" text="gow">
+    <cfRule type="containsText" dxfId="11" priority="55" operator="containsText" text="gow">
       <formula>NOT(ISERROR(SEARCH("gow",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="56" operator="containsText" text="madh">
+    <cfRule type="containsText" dxfId="10" priority="56" operator="containsText" text="madh">
       <formula>NOT(ISERROR(SEARCH("madh",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="57" operator="containsText" text="sara">
+    <cfRule type="containsText" dxfId="9" priority="57" operator="containsText" text="sara">
       <formula>NOT(ISERROR(SEARCH("sara",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="58" operator="containsText" text="vidhy">
+    <cfRule type="containsText" dxfId="8" priority="58" operator="containsText" text="vidhy">
       <formula>NOT(ISERROR(SEARCH("vidhy",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="59" operator="containsText" text="ash">
+    <cfRule type="containsText" dxfId="7" priority="59" operator="containsText" text="ash">
       <formula>NOT(ISERROR(SEARCH("ash",A8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="vidh">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="vidh">
       <formula>NOT(ISERROR(SEARCH("vidh",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Krish">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Krish">
       <formula>NOT(ISERROR(SEARCH("Krish",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Gowt">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Gowt">
       <formula>NOT(ISERROR(SEARCH("Gowt",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="Madh">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Madh">
       <formula>NOT(ISERROR(SEARCH("Madh",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Sara">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Sara">
       <formula>NOT(ISERROR(SEARCH("Sara",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Ash">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Ash">
       <formula>NOT(ISERROR(SEARCH("Ash",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2025,7 +1954,7 @@
     <mergeCell ref="B3:B6"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A8">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="vidhya">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="vidhya">
       <formula>NOT(ISERROR(SEARCH("vidhya",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/task_management_system/tasks.xlsx
+++ b/task_management_system/tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
   <si>
     <t>CIT - KG  hourly 9:00 AM EST report</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>Estimated Time</t>
-  </si>
-  <si>
-    <t>5 mins</t>
   </si>
 </sst>
 </file>
@@ -479,7 +476,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,7 +1182,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1215,312 +1214,312 @@
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>80</v>
+      <c r="B2" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>80</v>
+      <c r="B3" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>80</v>
+      <c r="B4" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>80</v>
+      <c r="B5" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>80</v>
+      <c r="B6" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>80</v>
+      <c r="B7" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>80</v>
+      <c r="B8" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>80</v>
+      <c r="B9" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>80</v>
+      <c r="B10" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>80</v>
+      <c r="B11" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>80</v>
+      <c r="B12" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>80</v>
+      <c r="B13" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>80</v>
+      <c r="B14" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>80</v>
+      <c r="B15" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>80</v>
+      <c r="B16" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>80</v>
+      <c r="B17" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>80</v>
+      <c r="B18" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>80</v>
+      <c r="B19" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>80</v>
+      <c r="B20" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>80</v>
+      <c r="B21" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>80</v>
+      <c r="B22" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>80</v>
+      <c r="B23" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>80</v>
+      <c r="B24" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>80</v>
+      <c r="B25" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>80</v>
+      <c r="B26" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>80</v>
+      <c r="B27" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>80</v>
+      <c r="B28" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>80</v>
+      <c r="B29" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>80</v>
+      <c r="B30" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>80</v>
+      <c r="B31" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>80</v>
+      <c r="B32" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>80</v>
+      <c r="B33" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>80</v>
+      <c r="B34" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>80</v>
+      <c r="B35" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>80</v>
+      <c r="B36" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>80</v>
+      <c r="B37" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>80</v>
+      <c r="B38" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>80</v>
+      <c r="B39" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>80</v>
+      <c r="B40" s="14">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/task_management_system/tasks.xlsx
+++ b/task_management_system/tasks.xlsx
@@ -263,7 +263,7 @@
     <t>Task Name</t>
   </si>
   <si>
-    <t>Estimated Time</t>
+    <t>Estimated Time(in minutes)</t>
   </si>
 </sst>
 </file>
@@ -464,6 +464,9 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,9 +478,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,312 +1214,312 @@
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14">
-        <v>5</v>
+      <c r="B2" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
-        <v>5</v>
+      <c r="B3" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14">
-        <v>5</v>
+      <c r="B4" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14">
-        <v>5</v>
+      <c r="B5" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14">
-        <v>5</v>
+      <c r="B6" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14">
-        <v>5</v>
+      <c r="B7" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14">
-        <v>5</v>
+      <c r="B8" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14">
-        <v>5</v>
+      <c r="B9" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14">
-        <v>5</v>
+      <c r="B10" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14">
-        <v>5</v>
+      <c r="B11" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14">
-        <v>5</v>
+      <c r="B12" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14">
-        <v>5</v>
+      <c r="B13" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="14">
-        <v>5</v>
+      <c r="B14" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="14">
-        <v>5</v>
+      <c r="B15" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="14">
-        <v>5</v>
+      <c r="B16" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="14">
-        <v>5</v>
+      <c r="B17" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="14">
-        <v>5</v>
+      <c r="B18" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="14">
-        <v>5</v>
+      <c r="B19" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="14">
-        <v>5</v>
+      <c r="B20" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="14">
-        <v>5</v>
+      <c r="B21" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="14">
-        <v>5</v>
+      <c r="B22" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="14">
-        <v>5</v>
+      <c r="B23" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="14">
-        <v>5</v>
+      <c r="B24" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="14">
-        <v>5</v>
+      <c r="B25" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="14">
-        <v>5</v>
+      <c r="B26" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="14">
-        <v>5</v>
+      <c r="B27" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="14">
-        <v>5</v>
+      <c r="B28" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="14">
-        <v>5</v>
+      <c r="B29" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="14">
-        <v>5</v>
+      <c r="B30" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="14">
-        <v>5</v>
+      <c r="B31" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="14">
-        <v>5</v>
+      <c r="B32" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="14">
-        <v>5</v>
+      <c r="B33" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="14">
-        <v>5</v>
+      <c r="B34" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="14">
-        <v>5</v>
+      <c r="B35" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="14">
-        <v>5</v>
+      <c r="B36" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="14">
-        <v>5</v>
+      <c r="B37" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="14">
-        <v>5</v>
+      <c r="B38" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="14">
-        <v>5</v>
+      <c r="B39" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="14">
-        <v>5</v>
+      <c r="B40" s="10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1569,13 +1569,13 @@
       <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -1910,7 +1910,7 @@
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1918,19 +1918,19 @@
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">

--- a/task_management_system/tasks.xlsx
+++ b/task_management_system/tasks.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$A$2:$A$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$A$2:$A$41</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t>CIT - KG  hourly 9:00 AM EST report</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Estimated Time(in minutes)</t>
+  </si>
+  <si>
+    <t>MIB/TIB - Centerwise hourly 12:30 PM EST report</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="72">
     <dxf>
       <fill>
         <patternFill>
@@ -861,6 +864,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -890,6 +949,62 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1182,7 +1297,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1190,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1220,7 +1335,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B3" s="10">
         <v>3</v>
@@ -1228,7 +1343,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="10">
         <v>3</v>
@@ -1236,7 +1351,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5" s="10">
         <v>3</v>
@@ -1244,15 +1359,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B6" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" s="10">
         <v>3</v>
@@ -1260,7 +1375,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B8" s="10">
         <v>3</v>
@@ -1268,15 +1383,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B9" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10" s="10">
         <v>3</v>
@@ -1284,7 +1399,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11" s="10">
         <v>3</v>
@@ -1292,23 +1407,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B12" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B13" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B14" s="10">
         <v>3</v>
@@ -1316,7 +1431,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" s="10">
         <v>3</v>
@@ -1324,23 +1439,23 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B16" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B17" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B18" s="10">
         <v>3</v>
@@ -1356,23 +1471,23 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B20" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B21" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B22" s="10">
         <v>3</v>
@@ -1380,7 +1495,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" s="10">
         <v>3</v>
@@ -1388,39 +1503,39 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B24" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B25" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B26" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B27" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B28" s="10">
         <v>2</v>
@@ -1428,7 +1543,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B29" s="10">
         <v>2</v>
@@ -1436,23 +1551,23 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B30" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B31" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="10">
         <v>2</v>
@@ -1460,7 +1575,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B33" s="10">
         <v>2</v>
@@ -1468,23 +1583,23 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B34" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B35" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" s="10">
         <v>2</v>
@@ -1492,7 +1607,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B37" s="10">
         <v>2</v>
@@ -1500,49 +1615,97 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B38" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B39" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B40" s="10">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A40">
-    <cfRule type="containsText" dxfId="55" priority="73" operator="containsText" text="vidhya">
+  <conditionalFormatting sqref="A2:A5 A7:A14 A18 A22 A26 A30 A34 A38 A40:A41">
+    <cfRule type="containsText" dxfId="63" priority="81" operator="containsText" text="vidhya">
       <formula>NOT(ISERROR(SEARCH("vidhya",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:A54">
-    <cfRule type="containsText" dxfId="54" priority="8" operator="containsText" text="gow">
-      <formula>NOT(ISERROR(SEARCH("gow",A41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="madh">
-      <formula>NOT(ISERROR(SEARCH("madh",A41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="10" operator="containsText" text="sara">
-      <formula>NOT(ISERROR(SEARCH("sara",A41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="vidhy">
-      <formula>NOT(ISERROR(SEARCH("vidhy",A41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="ash">
-      <formula>NOT(ISERROR(SEARCH("ash",A41)))</formula>
+  <conditionalFormatting sqref="A42:A55">
+    <cfRule type="containsText" dxfId="62" priority="16" operator="containsText" text="gow">
+      <formula>NOT(ISERROR(SEARCH("gow",A42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="madh">
+      <formula>NOT(ISERROR(SEARCH("madh",A42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="18" operator="containsText" text="sara">
+      <formula>NOT(ISERROR(SEARCH("sara",A42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="19" operator="containsText" text="vidhy">
+      <formula>NOT(ISERROR(SEARCH("vidhy",A42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="20" operator="containsText" text="ash">
+      <formula>NOT(ISERROR(SEARCH("ash",A42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="containsText" dxfId="57" priority="8" operator="containsText" text="vidhya">
+      <formula>NOT(ISERROR(SEARCH("vidhya",A6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A17">
+    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="vidhya">
+      <formula>NOT(ISERROR(SEARCH("vidhya",A15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A21">
+    <cfRule type="containsText" dxfId="55" priority="6" operator="containsText" text="vidhya">
+      <formula>NOT(ISERROR(SEARCH("vidhya",A19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A25">
+    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="vidhya">
+      <formula>NOT(ISERROR(SEARCH("vidhya",A23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:A29">
+    <cfRule type="containsText" dxfId="53" priority="4" operator="containsText" text="vidhya">
+      <formula>NOT(ISERROR(SEARCH("vidhya",A27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:A33">
+    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="vidhya">
+      <formula>NOT(ISERROR(SEARCH("vidhya",A31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:A37">
+    <cfRule type="containsText" dxfId="51" priority="2" operator="containsText" text="vidhya">
+      <formula>NOT(ISERROR(SEARCH("vidhya",A35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="vidhya">
+      <formula>NOT(ISERROR(SEARCH("vidhya",A39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
